--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655191.5556939465</v>
+        <v>653303.9741775441</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>79.97861261893982</v>
       </c>
       <c r="G2" t="n">
-        <v>400.4422996099311</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>194.7016335971159</v>
       </c>
       <c r="W4" t="n">
-        <v>11.00429467105817</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>285.0120783583006</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>196.8729073019002</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>123.6064608052456</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>9.461970681989245</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>213.7459573001039</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>114.3875550887382</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.72683757586846</v>
+        <v>190.2713935802969</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>101.5008511078723</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>95.2085474905403</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>211.2541671901479</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>76.79694693194017</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>59.77945773664933</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>31.42218700821013</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.2407729770142</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,16 +2530,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185871</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>12.25082275066611</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>42.20569823125601</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523576</v>
+        <v>54.76109577523564</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.078991725597176</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898725</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857177</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692859</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329066</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337377</v>
+        <v>98.361678333737</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415222</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463132</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1150.836072463478</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>1150.836072463478</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D2" t="n">
-        <v>792.5703738567279</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="E2" t="n">
-        <v>792.5703738567279</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="F2" t="n">
-        <v>785.6248731075244</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.44116270037</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.97540443929</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1150.836072463478</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4492,40 +4492,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
         <v>274.7355609638946</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2322.110080805221</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1969.341425535107</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1595.875667274027</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1595.875667274027</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4638,22 +4638,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1916.245359491378</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1547.282842550966</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1547.282842550966</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1161.494589952722</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>750.5086851631143</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2526.577416610597</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2307.942749582659</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2054.180964220751</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491378</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1916.245359491378</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,13 +4887,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,34 +5024,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5121,19 +5121,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>665.6859735286129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>496.749790600706</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>346.6331511883702</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>346.6331511883702</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>199.7432036904599</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286129</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286129</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011339</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1296.555866665167</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1178.960605356963</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>924.2761171510766</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W16" t="n">
-        <v>634.8589471141161</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="X16" t="n">
-        <v>634.8589471141161</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,10 +5534,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>2032.925401907738</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.6797126268226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609665</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550797</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550797</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="X19" t="n">
-        <v>503.3281774570623</v>
+        <v>157.600382103366</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.3281774570623</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1467.176687721327</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1267.256677636879</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1043.471262426384</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>754.3426236399425</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.21084526296</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>785.7936752259998</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X25" t="n">
-        <v>557.8041243279824</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>557.8041243279824</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6224,13 +6224,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>985.4001231459574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>816.4639402180505</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>666.3473008057148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>518.4342072233217</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>371.5442597254113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.063975947119</v>
@@ -6397,7 +6397,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119727</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119727</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119727</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V28" t="n">
-        <v>1387.841167119727</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W28" t="n">
-        <v>1387.841167119727</v>
+        <v>241.9805482336709</v>
       </c>
       <c r="X28" t="n">
-        <v>1387.841167119727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1167.048587976197</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,16 +6452,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541576</v>
+        <v>439.5324299542195</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076215</v>
+        <v>326.3571123076836</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766565</v>
+        <v>232.0013381767189</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756341</v>
+        <v>139.849109875696</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590945</v>
+        <v>139.849109875696</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818924</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652459</v>
+        <v>730.4517433652477</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030266</v>
+        <v>565.4200295030885</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>306.3284467737876</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802517</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506733</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6941,19 +6941,19 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7169,10 +7169,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7181,7 +7181,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,31 +7190,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7494,16 +7494,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7713,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649689</v>
@@ -7816,7 +7816,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>19.14409596997035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>253.7371603504733</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>18.73797368291349</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,13 +10674,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>199.6230805871085</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>64.99271735550531</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>191.028804908037</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>14.45548819888927</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>90.44987416668766</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154455</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>78.54216539558274</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.59120720492312</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>154.2427457127115</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.08461360356441</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>55.21598883571483</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.3024049979406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.815970093361102e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
         <v>351926.1537639381</v>
@@ -26326,31 +26326,31 @@
         <v>351926.1537639381</v>
       </c>
       <c r="G2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.153763938</v>
       </c>
       <c r="H2" t="n">
         <v>351926.153763938</v>
       </c>
       <c r="I2" t="n">
+        <v>351926.1537639381</v>
+      </c>
+      <c r="J2" t="n">
         <v>351926.153763938</v>
       </c>
-      <c r="J2" t="n">
-        <v>351926.1537639382</v>
-      </c>
       <c r="K2" t="n">
-        <v>366139.9236107434</v>
+        <v>366139.9236107426</v>
       </c>
       <c r="L2" t="n">
         <v>369468.7964389282</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.796438928</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389281</v>
+        <v>369468.7964389277</v>
       </c>
       <c r="P2" t="n">
         <v>369468.7964389282</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284573</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086673</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284587</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563567</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275962</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>129834.7601242953</v>
       </c>
       <c r="D6" t="n">
-        <v>129834.7601242952</v>
+        <v>129834.7601242953</v>
       </c>
       <c r="E6" t="n">
-        <v>-280266.8782831138</v>
+        <v>-280364.3374090858</v>
       </c>
       <c r="F6" t="n">
-        <v>244893.1581937824</v>
+        <v>244795.6990678101</v>
       </c>
       <c r="G6" t="n">
-        <v>244893.1581937822</v>
+        <v>244795.6990678101</v>
       </c>
       <c r="H6" t="n">
-        <v>244893.1581937822</v>
+        <v>244795.6990678101</v>
       </c>
       <c r="I6" t="n">
-        <v>244893.1581937823</v>
+        <v>244795.6990678101</v>
       </c>
       <c r="J6" t="n">
-        <v>68469.93900118953</v>
+        <v>68372.47987521731</v>
       </c>
       <c r="K6" t="n">
-        <v>192138.8176420393</v>
+        <v>192120.323904104</v>
       </c>
       <c r="L6" t="n">
-        <v>223946.3269552763</v>
+        <v>223946.3269552765</v>
       </c>
       <c r="M6" t="n">
-        <v>99488.21852230583</v>
+        <v>99488.21852230557</v>
       </c>
       <c r="N6" t="n">
+        <v>234289.2337561426</v>
+      </c>
+      <c r="O6" t="n">
         <v>234289.2337561427</v>
       </c>
-      <c r="O6" t="n">
-        <v>234289.2337561429</v>
-      </c>
       <c r="P6" t="n">
-        <v>190126.6284532975</v>
+        <v>190126.6284532974</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108342</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>326.8974331227716</v>
       </c>
       <c r="G2" t="n">
-        <v>13.34187041086386</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>57.43600972671209</v>
       </c>
       <c r="W4" t="n">
-        <v>275.5187036655328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>121.8639673834109</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>130.8793511682347</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>25.00901221296672</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>216.2476847070479</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>200.0382127206911</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.02815772023335</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>158.8578157762263</v>
+        <v>28.3132597717979</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964058</v>
       </c>
     </row>
     <row r="35">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35972,16 +35972,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>301.5077982110785</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36212,10 +36212,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009397</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>169.3134122708527</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952061</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502434</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
@@ -37324,7 +37324,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349808</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37394,13 +37394,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37783,7 +37783,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37798,7 +37798,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37862,7 +37862,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>481.9867828282167</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
